--- a/17 - Analise dos Eventos para cada Cenario/Analise da Cadeia de Eventos.xlsx
+++ b/17 - Analise dos Eventos para cada Cenario/Analise da Cadeia de Eventos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhd1CqeT6OLIkb5fWPV3Dh9cXkGJA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWM3t9LfzyI12ZNJZhFWCrpPaYfA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Externo</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Extemporâneo</t>
   </si>
   <si>
-    <t>Comprar Produtos do Fornecedor</t>
+    <t>Comprar Produtos</t>
   </si>
   <si>
     <t>FB</t>
@@ -63,100 +63,88 @@
     <t>x</t>
   </si>
   <si>
-    <t>Fornecedor recebe o pedido de orçamento</t>
+    <t>Financeiro faz o pedido dos produtos que estão em falta</t>
   </si>
   <si>
     <t>x (1)</t>
   </si>
   <si>
-    <t>Fornecedor retorna o orçamento</t>
+    <t>Financeiro faz o pagamento do pedido</t>
   </si>
   <si>
     <t>x (2)</t>
   </si>
   <si>
-    <t>Financeiro recebe o orçamento</t>
+    <t>Estoquista deve receber os produtos da compra</t>
   </si>
   <si>
     <t>x (3)</t>
   </si>
   <si>
-    <t>Financeiro faz o pedido baseado no orçamento</t>
+    <t>Estoquista deve adicionar novos produtos no catálogo</t>
   </si>
   <si>
     <t>x (4)</t>
   </si>
   <si>
-    <t>Financeiro faz o pagamento do pedido</t>
-  </si>
-  <si>
-    <t>x (5)</t>
-  </si>
-  <si>
-    <t>Fornecedor envia os produtos</t>
-  </si>
-  <si>
-    <t>x (6)</t>
-  </si>
-  <si>
-    <t>Estoquista deve receber os produtos da compra</t>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Fornecedor não possui os produtos solicitados</t>
+  </si>
+  <si>
+    <t>Estoquista entra em contato com outro fornecedor</t>
   </si>
   <si>
     <t>x (7)</t>
   </si>
   <si>
-    <t>Estoquista deve adicionar novos produtos no catálogo</t>
+    <t>Realizar o Controle dos Gastos</t>
+  </si>
+  <si>
+    <t>Contador gera relatório dos gastos da loja</t>
+  </si>
+  <si>
+    <t>Contador gera relatório de gastos de compras do mês</t>
   </si>
   <si>
     <t>x (8)</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Fornecedor não possui os produtos solicitados</t>
-  </si>
-  <si>
-    <t>Estoquista entra em contato com outro fornecedor</t>
+    <t>Contador gera relatório de vendas por mês</t>
+  </si>
+  <si>
+    <t>x (9)</t>
+  </si>
+  <si>
+    <t>Contador analisa os relatórios de gastos do mês</t>
+  </si>
+  <si>
+    <t>x (10)</t>
+  </si>
+  <si>
+    <t>Contador deve pagar os gastos da loja do mês</t>
   </si>
   <si>
     <t>x (11)</t>
   </si>
   <si>
-    <t>Realizar o Controle dos Gastos</t>
-  </si>
-  <si>
-    <t>Contador gera relatório dos gastos da loja</t>
-  </si>
-  <si>
-    <t>Contador gera relatório de gastos de compras do mês</t>
-  </si>
-  <si>
-    <t>Contador gera relatório de vendas por mês</t>
-  </si>
-  <si>
-    <t>Contador analisa os relatórios de gastos do mês</t>
-  </si>
-  <si>
-    <t>x (2, 3)</t>
-  </si>
-  <si>
-    <t>Contador deve pagar os gastos da loja do mês</t>
-  </si>
-  <si>
     <t>Contador após pagar os gastos deve realizar o cálculo do lucro total no mês</t>
   </si>
   <si>
-    <t>Conta reportada não possui os comprovantes mas deve ser paga</t>
-  </si>
-  <si>
-    <t>Solicitar comprovantes das contas reportadas</t>
+    <t>x (12)</t>
+  </si>
+  <si>
+    <t>Solicitar boletos das contas faltantes</t>
   </si>
   <si>
     <t>Falha</t>
   </si>
   <si>
-    <t>Conta não reportada e que não deve ser paga</t>
+    <t>Não pagar conta que o boleto não foi recebido</t>
+  </si>
+  <si>
+    <t>x (14)</t>
   </si>
   <si>
     <t>Caixa da loja não possui dinheiro suficiente para pagar as contas</t>
@@ -171,74 +159,92 @@
     <t>Estoquista realiza contagem de produtos do estoque</t>
   </si>
   <si>
+    <t>x (17)</t>
+  </si>
+  <si>
     <t>Estoquista compara a quantidade de itens contados com a quantidade de itens no catálogo</t>
   </si>
   <si>
+    <t>x (18)</t>
+  </si>
+  <si>
     <t>Estoquista gera relatório final comparando o saldo no estoque e no catálogo</t>
   </si>
   <si>
+    <t>x (19)</t>
+  </si>
+  <si>
     <t>Estoquista calcula a diferença dos saldos de produtos</t>
   </si>
   <si>
     <t>Estoquista atualiza a quantidade de produtos no catálogo</t>
   </si>
   <si>
+    <t>x (21)</t>
+  </si>
+  <si>
     <t>Vender Produto</t>
   </si>
   <si>
-    <t>Cliente faz pedido</t>
-  </si>
-  <si>
-    <t>Atendente registra os dados do cliente</t>
-  </si>
-  <si>
-    <t>Atendente registra o pedido</t>
-  </si>
-  <si>
-    <t>Atendente verifica a disponibilidade dos produtos</t>
+    <t>Cliente faz pedido e o atendente registra seus dados</t>
+  </si>
+  <si>
+    <t>Atendente verifica a disponibilidade dos produtos do pedido</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Atendente Informa o valor a ser pago</t>
-  </si>
-  <si>
-    <t>Cliente faz o pagamento</t>
-  </si>
-  <si>
-    <t>Atendente entrega o pedido, a nota e se necessário o troco</t>
+    <t>x (23)</t>
+  </si>
+  <si>
+    <t>Cliente faz o pagamento e atendente entrega pedido a nota fiscal e se necessário o troco</t>
+  </si>
+  <si>
+    <t>x (24)</t>
   </si>
   <si>
     <t>Loja não possui produto solicitado pelo cliente</t>
   </si>
   <si>
-    <t>Entregar Produtos de Vendas Realizadas</t>
+    <t xml:space="preserve">Entregar o Produto </t>
   </si>
   <si>
     <t>Entregador recebe pedido do cliente</t>
   </si>
   <si>
-    <t>Cliente recebe o código de rastreio do pedido</t>
-  </si>
-  <si>
     <t>Entregador separa pedido</t>
   </si>
   <si>
+    <t>x (27)</t>
+  </si>
+  <si>
     <t>Entregador confere pedido</t>
   </si>
   <si>
+    <t>x (28)</t>
+  </si>
+  <si>
     <t>Entregador entrega pedido</t>
   </si>
   <si>
-    <t>Cliente recebe o pedido</t>
+    <t>x ( 29)</t>
+  </si>
+  <si>
+    <t>Entregador não recebe o pedido</t>
+  </si>
+  <si>
+    <t>Pedido foi extraviado</t>
+  </si>
+  <si>
+    <t>x (32)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -261,6 +267,7 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -276,11 +283,6 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -290,8 +292,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +331,14 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -399,27 +414,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -449,122 +448,135 @@
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" textRotation="90" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" textRotation="90" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,9 +799,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.14"/>
     <col customWidth="1" min="2" max="2" width="9.29"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="83.86"/>
-    <col customWidth="1" min="5" max="7" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -854,26 +864,26 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="13">
+      <c r="C4" s="18">
         <v>2.0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -881,17 +891,17 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="13">
+      <c r="C5" s="18">
         <v>3.0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -899,14 +909,15 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="13">
+      <c r="C6" s="18">
         <v>4.0</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="15"/>
@@ -915,765 +926,571 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13">
+      <c r="B7" s="22"/>
+      <c r="C7" s="18">
         <v>5.0</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13">
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18">
         <v>6.0</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
+      <c r="D8" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="G8" s="26"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="15"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="13">
+      <c r="C9" s="18">
         <v>7.0</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13">
+      <c r="A10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="18">
         <v>8.0</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>27</v>
+      <c r="D10" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
         <v>9.0</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="25"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="13">
+      <c r="C13" s="18">
         <v>11.0</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17"/>
+      <c r="B17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="A19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22">
+        <v>49</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="33">
-        <v>9.0</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="33">
-        <v>10.0</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="16" t="s">
+      <c r="C25" s="40">
+        <v>23.0</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="C26" s="40">
+        <v>24.0</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27">
       <c r="A27" s="17"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="40">
+        <v>25.0</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" ht="27.75" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="34">
+        <v>26.0</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="A29" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="45">
+        <v>27.0</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="37"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18">
+        <v>28.0</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>29.0</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+    </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="6"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="18">
+        <v>30.0</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>10</v>
-      </c>
+      <c r="A33" s="17"/>
+      <c r="B33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="50">
+        <v>32.0</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="52"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-    </row>
+      <c r="B35" s="54"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="D38" s="55"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="D39" s="55"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" ht="29.25" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="33">
-        <v>8.0</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="D40" s="55"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="D41" s="55"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-    </row>
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="53"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="53"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="54"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="53"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="55"/>
-    </row>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
@@ -2622,43 +2439,26 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="18">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
